--- a/Datos/Bases JASP/Binomiales_Wins.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Periodo</t>
   </si>
@@ -98,10 +98,13 @@
     <t>Right 4</t>
   </si>
   <si>
-    <t>Right 1</t>
+    <t>1+O:O</t>
   </si>
   <si>
-    <t>1+O:O</t>
+    <t>Right1_2</t>
+  </si>
+  <si>
+    <t>Right 2</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +523,10 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -1608,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">

--- a/Datos/Bases JASP/Binomiales_Wins.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Periodo</t>
   </si>
@@ -98,13 +98,58 @@
     <t>Right 4</t>
   </si>
   <si>
-    <t>1+O:O</t>
-  </si>
-  <si>
     <t>Right1_2</t>
   </si>
   <si>
     <t>Right 2</t>
+  </si>
+  <si>
+    <t>Ply1_-sbj</t>
+  </si>
+  <si>
+    <t>Low1_1</t>
+  </si>
+  <si>
+    <t>Low1_2</t>
+  </si>
+  <si>
+    <t>Low 2</t>
+  </si>
+  <si>
+    <t>Low 3</t>
+  </si>
+  <si>
+    <t>Low 4</t>
+  </si>
+  <si>
+    <t>Low 5</t>
+  </si>
+  <si>
+    <t>Sesion_2</t>
+  </si>
+  <si>
+    <t>W_Periodo1</t>
+  </si>
+  <si>
+    <t>W_Periodo2</t>
+  </si>
+  <si>
+    <t>W_Periodo3</t>
+  </si>
+  <si>
+    <t>W_Periodo4</t>
+  </si>
+  <si>
+    <t>W_Periodo5</t>
+  </si>
+  <si>
+    <t>W_Periodo6</t>
+  </si>
+  <si>
+    <t>W_Periodo7</t>
+  </si>
+  <si>
+    <t>W_Periodo8</t>
   </si>
 </sst>
 </file>
@@ -129,7 +174,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +211,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -187,6 +262,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:AP115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,22 +560,24 @@
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="26" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="27" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="33" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -508,73 +591,121 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -587,23 +718,23 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -612,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -630,31 +761,79 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>6</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>6</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
       <c r="Z2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -667,32 +846,32 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,40 +880,88 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="5">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
         <v>7</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>8</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -747,29 +974,29 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -784,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -795,26 +1022,74 @@
       <c r="T4">
         <v>1</v>
       </c>
-      <c r="U4" s="5">
-        <v>1</v>
-      </c>
-      <c r="V4">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>7</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>7</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
       <c r="Z4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -827,29 +1102,29 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -858,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -875,26 +1150,74 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
         <v>7</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -907,19 +1230,19 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6">
@@ -932,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -950,31 +1273,79 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
       </c>
       <c r="W6">
         <v>6</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>5</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -987,32 +1358,32 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1021,40 +1392,88 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
         <v>6</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>6</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1067,19 +1486,19 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8">
@@ -1095,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1113,28 +1532,76 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1</v>
-      </c>
-      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1147,20 +1614,20 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1169,52 +1636,100 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
         <v>2</v>
-      </c>
-      <c r="V9">
-        <v>7</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>8</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1227,19 +1742,19 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10">
@@ -1275,17 +1790,17 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" s="5">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
       </c>
       <c r="W10">
         <v>6</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1293,8 +1808,56 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>9</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1307,35 +1870,35 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1344,37 +1907,85 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
         <v>6</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>10</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1387,29 +1998,29 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1418,16 +2029,16 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1435,17 +2046,17 @@
       <c r="T12">
         <v>1</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
         <v>6</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>7</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1453,8 +2064,29 @@
       <c r="Z12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1467,19 +2099,19 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13">
@@ -1495,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1513,28 +2145,49 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
         <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>6</v>
       </c>
       <c r="Z13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1547,20 +2200,20 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1569,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1587,34 +2240,55 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
         <v>7</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>7</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
         <v>0</v>
       </c>
-      <c r="Z14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1627,20 +2301,20 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1649,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1667,34 +2341,55 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
         <v>7</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>7</v>
       </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1707,19 +2402,19 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>1</v>
       </c>
       <c r="J16">
@@ -1729,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1741,40 +2436,61 @@
         <v>1</v>
       </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>2</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
-      <c r="U16" s="5">
-        <v>1</v>
-      </c>
-      <c r="V16">
+      <c r="U16">
         <v>2</v>
       </c>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
       <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
         <v>7</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1787,29 +2503,29 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1818,43 +2534,64 @@
         <v>1</v>
       </c>
       <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
         <v>2</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17" s="5">
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
         <v>8</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
         <v>2</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1867,74 +2604,95 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
         <v>6</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>7</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1947,26 +2705,26 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1975,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1984,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1993,28 +2751,49 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1</v>
-      </c>
-      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="W19">
         <v>7</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>6</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2027,29 +2806,29 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2058,43 +2837,64 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>2</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>8</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>6</v>
       </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
       <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
         <v>2</v>
       </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2107,29 +2907,29 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2138,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2155,26 +2955,47 @@
       <c r="T21">
         <v>1</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" s="5">
         <v>8</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>5</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
         <v>4</v>
       </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2187,74 +3008,95 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" s="5">
         <v>6</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>6</v>
       </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2267,74 +3109,95 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23">
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23" s="5">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
         <v>7</v>
       </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -2347,74 +3210,95 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5">
-        <v>1</v>
-      </c>
-      <c r="V24">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>6</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>8</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2427,74 +3311,95 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
-      <c r="U25" s="5">
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25" s="5">
         <v>3</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>8</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>3</v>
       </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
       <c r="Z25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2507,23 +3412,23 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26">
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2535,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2553,14 +3458,14 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26" s="5">
         <v>7</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
       <c r="W26">
         <v>0</v>
       </c>
@@ -2571,10 +3476,31 @@
         <v>0</v>
       </c>
       <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2587,74 +3513,95 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27" s="5">
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27" s="5">
         <v>6</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>7</v>
       </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>2</v>
       </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2667,26 +3614,26 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
         <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2698,43 +3645,64 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
         <v>2</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28" s="5">
-        <v>0</v>
-      </c>
-      <c r="V28">
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" s="5">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
         <v>7</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>8</v>
       </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -2747,26 +3715,26 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2778,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2795,26 +3763,47 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29" s="5">
-        <v>1</v>
-      </c>
-      <c r="V29">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>6</v>
       </c>
       <c r="Z29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -2827,26 +3816,26 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2855,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2873,28 +3862,49 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>3</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2907,29 +3917,29 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2944,37 +3954,58 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
         <v>2</v>
       </c>
-      <c r="U31" s="5">
+      <c r="V31" s="5">
         <v>4</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>7</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
       <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>4</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
       <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -2987,32 +4018,32 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3021,40 +4052,61 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32" s="5">
         <v>7</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>6</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2</v>
       </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3067,74 +4119,95 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33" s="5">
         <v>7</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
       <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
         <v>2</v>
       </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
       <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
         <v>6</v>
       </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3147,74 +4220,95 @@
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34" s="5">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
         <v>6</v>
       </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
       <c r="W34">
         <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3227,74 +4321,95 @@
       <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
-      <c r="U35" s="5">
-        <v>0</v>
-      </c>
-      <c r="V35">
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35" s="5">
         <v>0</v>
       </c>
       <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
         <v>7</v>
       </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
       <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
         <v>2</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3307,19 +4422,19 @@
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36">
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
         <v>1</v>
       </c>
       <c r="J36">
@@ -3341,11 +4456,11 @@
         <v>1</v>
       </c>
       <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
         <v>2</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
       <c r="R36">
         <v>1</v>
       </c>
@@ -3353,17 +4468,17 @@
         <v>1</v>
       </c>
       <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
         <v>2</v>
       </c>
-      <c r="U36" s="5">
+      <c r="V36" s="5">
         <v>7</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2</v>
       </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
       <c r="X36">
         <v>1</v>
       </c>
@@ -3371,10 +4486,31 @@
         <v>1</v>
       </c>
       <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -3387,23 +4523,23 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3418,43 +4554,64 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>2</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
         <v>2</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" s="5">
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37" s="5">
         <v>6</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>8</v>
       </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
       <c r="X37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>2</v>
       </c>
       <c r="Z37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -3467,74 +4624,95 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38" s="5">
-        <v>1</v>
-      </c>
-      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <v>6</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>7</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -3547,32 +4725,32 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3584,37 +4762,58 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" s="5">
         <v>7</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>7</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3627,23 +4826,23 @@
       <c r="D40" s="1">
         <v>0</v>
       </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3655,13 +4854,13 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3670,31 +4869,52 @@
         <v>1</v>
       </c>
       <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
         <v>2</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
       </c>
       <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
         <v>4</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>5</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>8</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -3707,19 +4927,19 @@
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41">
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>1</v>
       </c>
       <c r="J41">
@@ -3735,11 +4955,11 @@
         <v>1</v>
       </c>
       <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
         <v>7</v>
       </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
       <c r="P41">
         <v>1</v>
       </c>
@@ -3753,14 +4973,14 @@
         <v>1</v>
       </c>
       <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
         <v>7</v>
       </c>
-      <c r="U41" s="5">
+      <c r="V41" s="5">
         <v>7</v>
       </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
       <c r="W41">
         <v>1</v>
       </c>
@@ -3771,116 +4991,395 @@
         <v>1</v>
       </c>
       <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U46" s="5"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U47" s="5"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U48" s="5"/>
-    </row>
-    <row r="49" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U49" s="5"/>
-    </row>
-    <row r="50" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U50" s="5"/>
-    </row>
-    <row r="51" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U51" s="5"/>
-    </row>
-    <row r="52" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U52" s="5"/>
-    </row>
-    <row r="53" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U53" s="5"/>
-    </row>
-    <row r="54" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U54" s="5"/>
-    </row>
-    <row r="55" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U55" s="5"/>
-    </row>
-    <row r="56" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U56" s="5"/>
-    </row>
-    <row r="57" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U57" s="5"/>
-    </row>
-    <row r="58" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U58" s="5"/>
-    </row>
-    <row r="59" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U59" s="5"/>
-    </row>
-    <row r="60" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U60" s="5"/>
-    </row>
-    <row r="61" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U61" s="5"/>
-    </row>
-    <row r="62" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U62" s="5"/>
-    </row>
-    <row r="63" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U63" s="5"/>
-    </row>
-    <row r="64" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U64" s="5"/>
-    </row>
-    <row r="65" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U65" s="5"/>
-    </row>
-    <row r="66" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U66" s="5"/>
-    </row>
-    <row r="67" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U67" s="5"/>
-    </row>
-    <row r="68" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U68" s="5"/>
-    </row>
-    <row r="69" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U69" s="5"/>
-    </row>
-    <row r="70" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U70" s="5"/>
-    </row>
-    <row r="71" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U71" s="5"/>
-    </row>
-    <row r="72" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U72" s="5"/>
-    </row>
-    <row r="73" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U73" s="5"/>
-    </row>
-    <row r="74" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U74" s="5"/>
-    </row>
-    <row r="75" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U75" s="5"/>
-    </row>
-    <row r="76" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U76" s="5"/>
-    </row>
-    <row r="77" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U77" s="5"/>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E42" s="8"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E43" s="8"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E44" s="8"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E45" s="8"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E46" s="8"/>
+      <c r="V46" s="5"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="12"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E47" s="8"/>
+      <c r="V47" s="5"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="12"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E48" s="8"/>
+      <c r="V48" s="5"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="12"/>
+    </row>
+    <row r="49" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E49" s="8"/>
+      <c r="V49" s="5"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="12"/>
+    </row>
+    <row r="50" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
+      <c r="V50" s="5"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="12"/>
+    </row>
+    <row r="51" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E51" s="8"/>
+      <c r="V51" s="5"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="12"/>
+    </row>
+    <row r="52" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E52" s="8"/>
+      <c r="V52" s="5"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="12"/>
+    </row>
+    <row r="53" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E53" s="8"/>
+      <c r="V53" s="5"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="12"/>
+    </row>
+    <row r="54" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E54" s="8"/>
+      <c r="V54" s="5"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="12"/>
+    </row>
+    <row r="55" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E55" s="8"/>
+      <c r="V55" s="5"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="12"/>
+    </row>
+    <row r="56" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E56" s="8"/>
+      <c r="V56" s="5"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="12"/>
+    </row>
+    <row r="57" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E57" s="8"/>
+      <c r="V57" s="5"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="12"/>
+    </row>
+    <row r="58" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E58" s="8"/>
+      <c r="V58" s="5"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="12"/>
+    </row>
+    <row r="59" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E59" s="8"/>
+      <c r="V59" s="5"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="12"/>
+    </row>
+    <row r="60" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E60" s="8"/>
+      <c r="V60" s="5"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="12"/>
+    </row>
+    <row r="61" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E61" s="8"/>
+      <c r="V61" s="5"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="12"/>
+    </row>
+    <row r="62" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E62" s="8"/>
+      <c r="V62" s="5"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="12"/>
+    </row>
+    <row r="63" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E63" s="8"/>
+      <c r="V63" s="5"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="12"/>
+    </row>
+    <row r="64" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E64" s="8"/>
+      <c r="V64" s="5"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="12"/>
+    </row>
+    <row r="65" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E65" s="8"/>
+      <c r="V65" s="5"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="12"/>
+    </row>
+    <row r="66" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E66" s="8"/>
+      <c r="V66" s="5"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="12"/>
+    </row>
+    <row r="67" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E67" s="8"/>
+      <c r="V67" s="5"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="12"/>
+    </row>
+    <row r="68" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E68" s="8"/>
+      <c r="V68" s="5"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="12"/>
+    </row>
+    <row r="69" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E69" s="8"/>
+      <c r="V69" s="5"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="12"/>
+    </row>
+    <row r="70" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E70" s="8"/>
+      <c r="V70" s="5"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="12"/>
+    </row>
+    <row r="71" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E71" s="8"/>
+      <c r="V71" s="5"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="12"/>
+    </row>
+    <row r="72" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E72" s="8"/>
+      <c r="V72" s="5"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="12"/>
+    </row>
+    <row r="73" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E73" s="8"/>
+      <c r="V73" s="5"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="12"/>
+    </row>
+    <row r="74" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E74" s="8"/>
+      <c r="V74" s="5"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="12"/>
+    </row>
+    <row r="75" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E75" s="8"/>
+      <c r="V75" s="5"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="12"/>
+    </row>
+    <row r="76" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E76" s="8"/>
+      <c r="V76" s="5"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="12"/>
+    </row>
+    <row r="77" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E77" s="8"/>
+      <c r="V77" s="5"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="12"/>
+    </row>
+    <row r="78" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E78" s="8"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="12"/>
+    </row>
+    <row r="79" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E79" s="8"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="12"/>
+    </row>
+    <row r="80" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E80" s="8"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="12"/>
+    </row>
+    <row r="81" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E81" s="8"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="12"/>
+    </row>
+    <row r="82" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E82" s="8"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="12"/>
+    </row>
+    <row r="83" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E83" s="8"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="12"/>
+    </row>
+    <row r="84" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E84" s="8"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="12"/>
+    </row>
+    <row r="85" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E85" s="8"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="12"/>
+    </row>
+    <row r="86" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E86" s="8"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="12"/>
+    </row>
+    <row r="87" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E87" s="8"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="12"/>
+    </row>
+    <row r="88" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E88" s="8"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="12"/>
+    </row>
+    <row r="89" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E89" s="8"/>
+      <c r="AD89" s="10"/>
+      <c r="AE89" s="12"/>
+    </row>
+    <row r="90" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E90" s="8"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="12"/>
+    </row>
+    <row r="91" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E91" s="8"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="12"/>
+    </row>
+    <row r="92" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E92" s="8"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="12"/>
+    </row>
+    <row r="93" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E93" s="8"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="12"/>
+    </row>
+    <row r="94" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E94" s="8"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="12"/>
+    </row>
+    <row r="95" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E95" s="8"/>
+      <c r="AE95" s="12"/>
+    </row>
+    <row r="96" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E96" s="8"/>
+      <c r="AE96" s="12"/>
+    </row>
+    <row r="97" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E97" s="8"/>
+      <c r="AE97" s="12"/>
+    </row>
+    <row r="98" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E98" s="8"/>
+      <c r="AE98" s="12"/>
+    </row>
+    <row r="99" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E99" s="8"/>
+      <c r="AE99" s="12"/>
+    </row>
+    <row r="100" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E100" s="8"/>
+      <c r="AE100" s="12"/>
+    </row>
+    <row r="101" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E101" s="8"/>
+      <c r="AE101" s="12"/>
+    </row>
+    <row r="102" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E102" s="8"/>
+      <c r="AE102" s="12"/>
+    </row>
+    <row r="103" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E103" s="8"/>
+      <c r="AE103" s="12"/>
+    </row>
+    <row r="104" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E104" s="8"/>
+      <c r="AE104" s="12"/>
+    </row>
+    <row r="105" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE105" s="12"/>
+    </row>
+    <row r="106" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE106" s="12"/>
+    </row>
+    <row r="107" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE107" s="12"/>
+    </row>
+    <row r="108" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE108" s="12"/>
+    </row>
+    <row r="109" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE109" s="12"/>
+    </row>
+    <row r="110" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE110" s="12"/>
+    </row>
+    <row r="111" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE111" s="12"/>
+    </row>
+    <row r="112" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE112" s="12"/>
+    </row>
+    <row r="113" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE113" s="12"/>
+    </row>
+    <row r="114" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE114" s="12"/>
+    </row>
+    <row r="115" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE115" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/Bases JASP/Binomiales_Wins.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:AP115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,22 +559,20 @@
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="27" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">

--- a/Datos/Bases JASP/Binomiales_Wins.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Periodo</t>
   </si>
@@ -151,6 +151,42 @@
   <si>
     <t>W_Periodo8</t>
   </si>
+  <si>
+    <t>Pre_Periodo1</t>
+  </si>
+  <si>
+    <t>Pre_Periodo2</t>
+  </si>
+  <si>
+    <t>Pre_Periodo3</t>
+  </si>
+  <si>
+    <t>Pre_Periodo4</t>
+  </si>
+  <si>
+    <t>L_Periodo1</t>
+  </si>
+  <si>
+    <t>L_Periodo2</t>
+  </si>
+  <si>
+    <t>L_Periodo3</t>
+  </si>
+  <si>
+    <t>L_Periodo4</t>
+  </si>
+  <si>
+    <t>L_Periodo5</t>
+  </si>
+  <si>
+    <t>L_Periodo6</t>
+  </si>
+  <si>
+    <t>L_Periodo7</t>
+  </si>
+  <si>
+    <t>L_Periodo8</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -254,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -268,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:BB115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="AT17" sqref="AT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,22 +603,24 @@
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" customWidth="1"/>
-    <col min="23" max="33" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="33" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="35" max="42" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="43" max="46" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -702,8 +747,44 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -716,7 +797,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="13">
         <v>0</v>
       </c>
       <c r="F2" s="2">
@@ -785,10 +866,10 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7">
+      <c r="AB2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="13">
         <v>1</v>
       </c>
       <c r="AD2" s="9">
@@ -830,8 +911,44 @@
       <c r="AP2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -844,7 +961,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
       <c r="F3" s="2">
@@ -913,10 +1030,10 @@
       <c r="AA3">
         <v>1</v>
       </c>
-      <c r="AB3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="7">
+      <c r="AB3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="13">
         <v>0</v>
       </c>
       <c r="AD3" s="9">
@@ -958,8 +1075,44 @@
       <c r="AP3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -972,7 +1125,7 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="2">
@@ -1041,10 +1194,10 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
+      <c r="AB4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13">
         <v>1</v>
       </c>
       <c r="AD4" s="9">
@@ -1086,8 +1239,44 @@
       <c r="AP4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1100,7 +1289,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="13">
         <v>1</v>
       </c>
       <c r="F5" s="2">
@@ -1169,10 +1358,10 @@
       <c r="AA5">
         <v>6</v>
       </c>
-      <c r="AB5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="7">
+      <c r="AB5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="13">
         <v>1</v>
       </c>
       <c r="AD5" s="9">
@@ -1214,8 +1403,44 @@
       <c r="AP5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1228,7 +1453,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="13">
         <v>1</v>
       </c>
       <c r="F6" s="2">
@@ -1297,10 +1522,10 @@
       <c r="AA6">
         <v>1</v>
       </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
+      <c r="AB6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
         <v>1</v>
       </c>
       <c r="AD6" s="9">
@@ -1342,8 +1567,44 @@
       <c r="AP6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1356,7 +1617,7 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
       <c r="F7" s="2">
@@ -1425,10 +1686,10 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="7">
+      <c r="AB7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="13">
         <v>0</v>
       </c>
       <c r="AD7" s="9">
@@ -1470,8 +1731,44 @@
       <c r="AP7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1484,7 +1781,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8" s="2">
@@ -1553,10 +1850,10 @@
       <c r="AA8">
         <v>6</v>
       </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
+      <c r="AB8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
         <v>0</v>
       </c>
       <c r="AD8" s="9">
@@ -1598,8 +1895,44 @@
       <c r="AP8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1612,7 +1945,7 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
       <c r="F9" s="2">
@@ -1681,10 +2014,10 @@
       <c r="AA9">
         <v>1</v>
       </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
         <v>1</v>
       </c>
       <c r="AD9" s="9">
@@ -1726,8 +2059,44 @@
       <c r="AP9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1740,7 +2109,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="F10" s="2">
@@ -1809,10 +2178,10 @@
       <c r="AA10">
         <v>0</v>
       </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
         <v>0</v>
       </c>
       <c r="AD10" s="9">
@@ -1854,8 +2223,44 @@
       <c r="AP10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1868,7 +2273,7 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="2">
@@ -1937,10 +2342,10 @@
       <c r="AA11">
         <v>6</v>
       </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
         <v>0</v>
       </c>
       <c r="AD11" s="9">
@@ -1982,8 +2387,44 @@
       <c r="AP11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1996,7 +2437,7 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="2">
@@ -2065,10 +2506,10 @@
       <c r="AA12">
         <v>1</v>
       </c>
-      <c r="AB12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="7">
+      <c r="AB12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="13">
         <v>1</v>
       </c>
       <c r="AD12" s="9">
@@ -2084,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2097,7 +2538,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="F13" s="2">
@@ -2166,10 +2607,10 @@
       <c r="AA13">
         <v>1</v>
       </c>
-      <c r="AB13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="7">
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
         <v>0</v>
       </c>
       <c r="AD13" s="9">
@@ -2185,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2198,7 +2639,7 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="13">
         <v>1</v>
       </c>
       <c r="F14" s="2">
@@ -2267,10 +2708,10 @@
       <c r="AA14">
         <v>1</v>
       </c>
-      <c r="AB14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="7">
+      <c r="AB14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="13">
         <v>1</v>
       </c>
       <c r="AD14" s="9">
@@ -2286,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2299,7 +2740,7 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="13">
         <v>1</v>
       </c>
       <c r="F15" s="2">
@@ -2368,10 +2809,10 @@
       <c r="AA15">
         <v>1</v>
       </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="7">
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
         <v>1</v>
       </c>
       <c r="AD15" s="9">
@@ -2387,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2400,7 +2841,7 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="13">
         <v>0</v>
       </c>
       <c r="F16" s="2">
@@ -2469,10 +2910,10 @@
       <c r="AA16">
         <v>8</v>
       </c>
-      <c r="AB16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7">
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
         <v>0</v>
       </c>
       <c r="AD16" s="9">
@@ -2501,7 +2942,7 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="13">
         <v>1</v>
       </c>
       <c r="F17" s="2">
@@ -2570,10 +3011,10 @@
       <c r="AA17">
         <v>7</v>
       </c>
-      <c r="AB17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="7">
+      <c r="AB17" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="13">
         <v>0</v>
       </c>
       <c r="AD17" s="9">
@@ -2602,7 +3043,7 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="13">
         <v>1</v>
       </c>
       <c r="F18" s="2">
@@ -2671,10 +3112,10 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="7">
+      <c r="AB18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="13">
         <v>0</v>
       </c>
       <c r="AD18" s="9">
@@ -2703,7 +3144,7 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="13">
         <v>0</v>
       </c>
       <c r="F19" s="2">
@@ -2772,10 +3213,10 @@
       <c r="AA19">
         <v>1</v>
       </c>
-      <c r="AB19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="7">
+      <c r="AB19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="13">
         <v>0</v>
       </c>
       <c r="AD19" s="9">
@@ -2804,7 +3245,7 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="13">
         <v>0</v>
       </c>
       <c r="F20" s="2">
@@ -2873,10 +3314,10 @@
       <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AB20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="7">
+      <c r="AB20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="13">
         <v>1</v>
       </c>
       <c r="AD20" s="9">
@@ -2905,7 +3346,7 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="13">
         <v>1</v>
       </c>
       <c r="F21" s="2">
@@ -2974,10 +3415,10 @@
       <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AB21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="7">
+      <c r="AB21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="13">
         <v>1</v>
       </c>
       <c r="AD21" s="9">
@@ -3006,7 +3447,7 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="13">
         <v>1</v>
       </c>
       <c r="F22" s="2">
@@ -3075,10 +3516,10 @@
       <c r="AA22">
         <v>1</v>
       </c>
-      <c r="AB22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="7">
+      <c r="AB22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="13">
         <v>0</v>
       </c>
       <c r="AD22" s="9">
@@ -3107,7 +3548,7 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="13">
         <v>1</v>
       </c>
       <c r="F23" s="2">
@@ -3176,10 +3617,10 @@
       <c r="AA23">
         <v>6</v>
       </c>
-      <c r="AB23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="7">
+      <c r="AB23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="13">
         <v>0</v>
       </c>
       <c r="AD23" s="9">
@@ -3208,7 +3649,7 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="13">
         <v>0</v>
       </c>
       <c r="F24" s="2">
@@ -3277,10 +3718,10 @@
       <c r="AA24">
         <v>0</v>
       </c>
-      <c r="AB24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="7">
+      <c r="AB24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="13">
         <v>0</v>
       </c>
       <c r="AD24" s="9">
@@ -3309,7 +3750,7 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="13">
         <v>1</v>
       </c>
       <c r="F25" s="2">
@@ -3378,10 +3819,10 @@
       <c r="AA25">
         <v>1</v>
       </c>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="7">
+      <c r="AB25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="13">
         <v>0</v>
       </c>
       <c r="AD25" s="9">
@@ -3410,7 +3851,7 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="13">
         <v>1</v>
       </c>
       <c r="F26" s="2">
@@ -3479,10 +3920,10 @@
       <c r="AA26">
         <v>7</v>
       </c>
-      <c r="AB26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="7">
+      <c r="AB26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="13">
         <v>0</v>
       </c>
       <c r="AD26" s="9">
@@ -3511,7 +3952,7 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="13">
         <v>1</v>
       </c>
       <c r="F27" s="2">
@@ -3580,10 +4021,10 @@
       <c r="AA27">
         <v>1</v>
       </c>
-      <c r="AB27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="7">
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="13">
         <v>1</v>
       </c>
       <c r="AD27" s="9">
@@ -3612,7 +4053,7 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="13">
         <v>0</v>
       </c>
       <c r="F28" s="2">
@@ -3681,10 +4122,10 @@
       <c r="AA28">
         <v>1</v>
       </c>
-      <c r="AB28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="7">
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="13">
         <v>0</v>
       </c>
       <c r="AD28" s="9">
@@ -3713,7 +4154,7 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="13">
         <v>0</v>
       </c>
       <c r="F29" s="2">
@@ -3782,10 +4223,10 @@
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AB29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="7">
+      <c r="AB29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="13">
         <v>0</v>
       </c>
       <c r="AD29" s="9">
@@ -3883,10 +4324,10 @@
       <c r="AA30">
         <v>7</v>
       </c>
-      <c r="AB30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
+      <c r="AB30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="13">
         <v>0</v>
       </c>
       <c r="AD30" s="9">
@@ -3984,10 +4425,10 @@
       <c r="AA31">
         <v>2</v>
       </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="7">
+      <c r="AB31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="13">
         <v>1</v>
       </c>
       <c r="AD31" s="9">
@@ -4085,10 +4526,10 @@
       <c r="AA32">
         <v>1</v>
       </c>
-      <c r="AB32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="7">
+      <c r="AB32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="13">
         <v>1</v>
       </c>
       <c r="AD32" s="9">
@@ -4186,10 +4627,10 @@
       <c r="AA33">
         <v>1</v>
       </c>
-      <c r="AB33" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="7">
+      <c r="AB33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="13">
         <v>0</v>
       </c>
       <c r="AD33" s="9">
@@ -4290,7 +4731,7 @@
       <c r="AB34" s="7">
         <v>0</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AC34" s="13">
         <v>0</v>
       </c>
       <c r="AD34" s="9">
@@ -4391,7 +4832,7 @@
       <c r="AB35" s="7">
         <v>0</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AC35" s="13">
         <v>0</v>
       </c>
       <c r="AD35" s="9">
@@ -4492,7 +4933,7 @@
       <c r="AB36" s="7">
         <v>1</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AC36" s="13">
         <v>0</v>
       </c>
       <c r="AD36" s="9">
@@ -4593,7 +5034,7 @@
       <c r="AB37" s="7">
         <v>1</v>
       </c>
-      <c r="AC37" s="7">
+      <c r="AC37" s="13">
         <v>1</v>
       </c>
       <c r="AD37" s="9">
